--- a/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BBD370-42F3-478F-858F-C22570D16E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B59B3-FFC9-4A71-A125-309CC8D4925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="4560" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>7.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36375807514271147</v>
+        <v>0.90939518785677864</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87245995213663885</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.09674133913087</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9134930142771317</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51527323650893264</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1026581196581302E-4</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.264469232879217E-5</v>
+        <v>8.3227804699643408E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4678789341056113</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177769277343395</v>
+        <v>2.7521552126607762</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>2.7074410111066287</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0347020417763095</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>1.5998415811224072</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>1.5188478698763828</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68869702185053305</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71516282536461651</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>1.3257307195545065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68646861810137405</v>
+        <v>1.266301334361758</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82265806982219136</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95699804278388034</v>
+        <v>2.031179519378032</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>2.205121327278559</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0072324498918077</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0621400356040098</v>
+        <v>2.2084099750182382</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1062904185486513</v>
+        <v>2.1683292203553566</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1205200727944258</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2538537140086619</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>1.2520566152049835</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>6.962011424219356E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>1.1574374327480721</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>1.3657778879423679</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.49050048475369551</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>6.962011424219356E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>9.931120660754014E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>1.1429199218311172</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.87695329370604636</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>1.1644130991655637E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1120477295030498</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>3.0036711728402379</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>3.3812947711194545</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>8.4843878577306394E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4678789341056113</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4455764753369735</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4052010321592161</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810683945543913</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1486367795600976</v>
+        <v>2.4630561870979415</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0869597206539012</v>
+        <v>2.1739194413078025</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90930284502447067</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>1.5833483689458874</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81545665593432237</v>
+        <v>1.5340273725497153</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70043955164202099</v>
+        <v>1.5188478698763828</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70319590652107067</v>
+        <v>1.3918929283716039</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75850602690186608</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68992108874775337</v>
+        <v>1.3798421774955067</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84784148012287064</v>
+        <v>1.7460497808471001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97178185182714993</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93746747048216839</v>
+        <v>2.0507100916797434</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0586218606005735</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0095588457226232</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>2.2568324538392486</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1124985937616252</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>2.1311852364913588</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2786825004246751</v>
+        <v>2.383563495937258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>1.6278888845775719E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.34990062466108435</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.83857801224783735</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>0.10933466931528769</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>1.1766700791567802E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.83010752727563697</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.87695329370604636</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>1.7805034675067194E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>1.3392579289531956</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.94089780470544571</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87245995213663885</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>2.7233821947013457</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2520566152049835</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392579289531956</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6807180333418054E-4</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1644130991655637E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5137501507964117</v>
+        <v>3.1192427349744243</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4316767015356566</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>2.7558311504481714</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3537205055533144</v>
+        <v>2.8168325671109375</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0556051133273463</v>
+        <v>2.0066948688995097</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79167418447294369</v>
+        <v>1.6988008541815254</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79930899938116751</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7539420028679521</v>
+        <v>1.5078840057359042</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68626735767311697</v>
+        <v>1.4158779168834834</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67980387423631217</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83944701002264421</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>1.9248755911191626</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.015589759689016</v>
+        <v>1.9335266578694723</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>2.0970271445688256</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97639880346654828</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1042049875091191</v>
+        <v>2.103247595255465</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1616049394760839</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>2.2704052933910721</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1424910546139244</v>
+        <v>2.2849821092278488</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>2.5077074280173237</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>1.9077868852459015E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>1.3525179084477819</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>5.232594661952069E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>2.831571946202494</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>2.8991665542656326</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4737239462375422E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1795893806360098</v>
+        <v>2.2457567054416341</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95762742005115198</v>
+        <v>2.094809981361895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95591006242627796</v>
+        <v>1.9520689695862938</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85259637245697983</v>
+        <v>1.7407175937663342</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.785013907370255</v>
+        <v>1.5224512142938278</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>1.355487606102185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60811201062320686</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56290685548690556</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57193865122361309</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56577357671134909</v>
+        <v>1.0871727552492589</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54642455158584768</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52455735176140561</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52665105035029203</v>
+        <v>1.0127904814428692</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62804965070615937</v>
+        <v>1.2560993014123187</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70445416772933789</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76133494975354776</v>
+        <v>1.5226698995070955</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71671829299783196</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80303175929380799</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88167257195709225</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83134706307034545</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83949929680030699</v>
+        <v>1.6131555114986291</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95024936783517189</v>
+        <v>1.7700723518498298</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>2.3305887978142075E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>1.684332420350356</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.63959834672026439</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>8.5170982527352896E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>1.5188596968420645</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>0.14025981011449659</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>2.2382882513661202E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>1.4824939084297701</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>1.4008900116504479</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3075136612021857E-5</v>
+        <v>5.7687841530054644E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44591232935093544</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4098226384087029</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>3.9174660717163503</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6506457719433489</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63959834672026439</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.35064952528624149</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188379445917527E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0673347353021849E-5</v>
+        <v>9.6794744902624103E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1342205583038556</v>
+        <v>2.223072294275557</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0374297050554147</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0340118648818555</v>
+        <v>2.068023729763711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>1.9520689695862938</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85259637245697983</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7612256071469139</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74908525600383924</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60811201062320686</v>
+        <v>1.2290263793647971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61623487337513871</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50892482745740708</v>
+        <v>1.0607064824901749</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48613943109257712</v>
+        <v>1.0127904814428692</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71840375520912669</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68106030027346842</v>
+        <v>1.4604179634730046</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>1.5385310442936277</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73935150225039503</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80303175929380799</v>
+        <v>1.4958434731943482</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89896026944644702</v>
+        <v>1.797920538892894</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83974450815186408</v>
+        <v>1.6794890163037282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79011698522381835</v>
+        <v>1.678998593600614</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95024936783517189</v>
+        <v>1.8259693734871931</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>2.3536639344262295E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>2.050754271552932E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.45902739786125707</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>1.356695620371217E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>1.1002679562386835</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>1.4098226384087029</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>1.4887619456889457E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356695620371217E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>2.7237025387281131</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629243733000019</v>
+        <v>3.9174660717163503</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>4.0423978088408541</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63959834672026439</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2195393457443866E-4</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0775095303886628</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0075038481788161</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026781720066478</v>
+        <v>2.1933585012645422</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0565321742606231</v>
+        <v>2.0124422366869013</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91476485794863471</v>
+        <v>1.8295297158972694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8246610744091567</v>
+        <v>1.5065923474782672</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66572262215593181</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61623487337513871</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>1.0871727552492589</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56249586192660794</v>
+        <v>1.1142775169593757</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52455735176140561</v>
+        <v>0.96918215468297808</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>1.0533021007005841</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60939471058617434</v>
+        <v>1.1814795409323788</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72537854894902121</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80891838411314465</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72426269608201965</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76366745736764097</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82980947948902806</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83974450815186408</v>
+        <v>1.6794890163037282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82303852627481078</v>
+        <v>1.7283809051771026</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
+        <v>1.9377634167619193</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>1.356695620371217E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>2.050754271552932E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>1.5483521181399686</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>2.3305887978142075E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.43716895034405434</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>1.0571201932489309</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>1.4970281624339834</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>8.9561239358659751E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.45902739786125707</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>3.7544628325866324E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B59B3-FFC9-4A71-A125-309CC8D4925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67521466-C53B-4ADE-84FF-CBB0BBF21573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="4560" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="4620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.587773224043715E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,15 +13510,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90939518785677864</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13526,23 +13526,23 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152205596220442</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13550,15 +13550,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-3</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643408E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.6965561174555082</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.3920064893931934</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0903071551036558</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.855345198938819</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5998415811224072</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>1.400879103284042</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4353895823832163</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3725347153462339</v>
+        <v>1.4736688522664827</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3257307195545065</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.7460497808471001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>1.8749349409643368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.205121327278559</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3839255580606258</v>
+        <v>2.3158133992588938</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
+        <v>2.4332210687692846</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,31 +13712,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.36375807514271147</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>0.84704849722003772</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1347425811255609</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2520566152049835</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>1.3525179084477819</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13744,11 +13744,11 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13756,11 +13756,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.34643626204067757</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.87245995213663885</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014684691360951</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3657778879423679</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49050048475369551</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1137080560878992</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2011840391392132E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.1028618451129191E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,43 +13914,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.33604317417945723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3127379699640236</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1429199218311172</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87695329370604636</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13958,11 +13958,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1644130991655637E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14188,51 +14188,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.2023260927720982</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0036711728402379</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3812947711194545</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306394E-5</v>
+        <v>8.3227804699643408E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,15 +14257,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2109851683560251</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8633534030713133</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14273,27 +14273,27 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4630561870979415</v>
+        <v>2.4867394196661912</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.0066948688995097</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8737149533837578</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5833483689458874</v>
+        <v>1.5998415811224072</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5340273725497153</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14301,35 +14301,35 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4447733845749831</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3798421774955067</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.266301334361758</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7460497808471001</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0507100916797434</v>
+        <v>1.9335266578694723</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.205121327278559</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.1583552497681597</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,15 +14341,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3839255580606258</v>
+        <v>2.3385174521928045</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1311852364913588</v>
+        <v>2.2190691637693529</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.383563495937258</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34990062466108435</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83857801224783735</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>1.7442622950819669E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0453811221846331E-5</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,15 +14487,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14503,11 +14503,11 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14515,19 +14515,19 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87695329370604636</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>7.2433048150969054E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>1.7442622950819669E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,43 +14588,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7805034675067194E-2</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392579289531956</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94089780470544571</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.587773224043715E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,39 +14858,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515531E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0540926057585915</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7233821947013457</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1617591293055138</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3005694671499501</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14898,15 +14898,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-3</v>
+        <v>1.7405028560548391E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139094E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,55 +14931,55 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1192427349744243</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>2.6687565698528743</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>2.8104020643184322</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.1112102266546926</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6988008541815254</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.598617998762335</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483400615244678</v>
+        <v>1.5335939657004252</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5078840057359042</v>
+        <v>1.4643873517242918</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3122028550692564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14991,31 +14991,31 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9248755911191626</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9335266578694723</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0970271445688256</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9939091355001093</v>
+        <v>2.1583552497681597</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.103247595255465</v>
+        <v>2.1453125471605743</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3232098789521678</v>
+        <v>2.1904550287263294</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2704052933910721</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.36375807514271147</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>1.3279388343083158</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3525179084477819</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9134930142771317</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.51527323650893264</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3136281628162925E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379549791128626E-4</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,47 +15169,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81316655733123622</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1544645675061791</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86781836356327502</v>
+        <v>0.87695329370604636</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50536413580683781</v>
+        <v>0.51527323650893264</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35336498728149113</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3152917977910936</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.1028618451129191E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>3.3588095455792262E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,15 +26485,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26501,39 +26501,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2529393613846489</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8991665542656326</v>
+        <v>2.7843480768689739</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.260982268123028E-3</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.797094861479382E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,63 +26558,63 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.3138099389398654</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.094809981361895</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0889128583471828</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9520689695862938</v>
+        <v>2.072815503787508</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>1.6874303204877728</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>1.4839022214171291</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058405280750971</v>
+        <v>1.2546310956015636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2206190761084481</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.0567247460702947</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.0649855561625392</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1035633100655355</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>1.0191399977078739</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0127904814428692</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2560993014123187</v>
+        <v>1.2187894211723487</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26622,19 +26622,19 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26642,15 +26642,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6626941261406909</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
+        <v>1.9563957573077071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3305887978142075E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26691,39 +26691,39 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.684332420350356</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63959834672026439</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26731,11 +26731,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152131147540982E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,27 +26788,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2198886444645145E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26816,15 +26816,15 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.159666621706253</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14025981011449659</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26832,11 +26832,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2382882513661202E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,15 +26889,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26905,27 +26905,27 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309450584288481</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.684332420350356</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1252210784872554</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61475957597384634</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26933,11 +26933,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27220,7 +27220,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.4575980616256741E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,11 +27240,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.1147808233773386</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27252,35 +27252,35 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9174660717163503</v>
+        <v>3.8375177845384654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35064952528624149</v>
+        <v>0.35759308024240466</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624103E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,59 +27313,59 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.223072294275557</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.068023729763711</v>
+        <v>2.0471346011802392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9520689695862938</v>
+        <v>1.9721933919531629</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>1.7407175937663342</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.5383100811093886</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4696339308265798</v>
+        <v>1.4839022214171291</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290263793647971</v>
+        <v>1.2162240212464137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.1495150522574702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0607064824901749</v>
+        <v>1.0285638618086543</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.99915686049791552</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0127904814428692</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27373,39 +27373,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4507570978980424</v>
+        <v>1.3391603980597313</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4604179634730046</v>
+        <v>1.4182905222189757</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5385310442936277</v>
+        <v>1.5543921890801602</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4958434731943482</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.797920538892894</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794890163037282</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.678998593600614</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
+        <v>1.8818663951245562</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.3305887978142075E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,11 +27442,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27454,15 +27454,15 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4824939084297701</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27470,27 +27470,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1711484694459189</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4292931161091531E-4</v>
+        <v>8.7805136626137011E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>4.0673347353021849E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27523,7 +27523,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3698674225107434E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1826303171855848</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5188379445917527E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7935718204260761E-5</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3075136612021857E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,43 +27644,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.44591232935093544</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1002679562386835</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4098226384087029</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.5188596968420645</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.59613049791403283</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27688,11 +27688,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,27 +27914,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0740311873474608E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0710639283429331</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9174660717163503</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0423978088408541</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27942,15 +27942,15 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598995866800661</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,87 +27987,87 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1550190607773256</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>2.0549088388597636</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1933585012645422</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0124422366869013</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8295297158972694</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5065923474782672</v>
+        <v>1.5383100811093886</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>1.1258137109738111</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.0649855561625392</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1142775169593757</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96918215468297808</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>0.98240676699958296</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.243662674665662</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>1.5543921890801602</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4334365859956639</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5273349147352819</v>
+        <v>1.4958434731943482</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6596189589780561</v>
+        <v>1.6423312614887011</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28075,11 +28075,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7283809051771026</v>
+        <v>1.678998593600614</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9377634167619193</v>
+        <v>1.7700723518498298</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.1987468478505665E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.45465570835781655</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.4824939084297701</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6169591235363416</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1252210784872554</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4292931161091531E-4</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.5188379445917527E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8326808082655205E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3305887978142075E-5</v>
+        <v>2.2382882513661202E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,15 +28217,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0930378647808275E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0571201932489309</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28233,15 +28233,15 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.5188596968420645</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28249,23 +28249,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.63959834672026439</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13609367714079867</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.2382882513661202E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,15 +28318,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.44591232935093544</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28334,15 +28334,15 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156362222993999</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28350,23 +28350,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.63959834672026439</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2195393457443866E-4</v>
+        <v>8.7805136626137011E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7ECD6E-9B0E-4330-A906-9C8D25BF801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92276C4-869C-49D7-A90B-EC1908041BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="8550" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8899,15 +8899,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1.1609689553699984</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>2.0789281794113679</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.51447372781749179</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.3377578121345337</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-1.0208169461602832</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.91036983354797463</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.70184820201987819</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.36502886240184418</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.83709990359985986</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-1.0046445831918105</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.50942986774084975</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.3245126852817164</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-1.0416499450615135</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.92857723021893412</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.70886668404007713</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.36502886240184418</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.84538802145728431</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-1.0145915592630166</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.41076294540081587</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.34230245450067986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.27384196360054391</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>1.1893797585793966</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.99114979881616372</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.79291983905293106</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13514,51 +13514,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.2023260927720982</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.189092084251383</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162799E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,108 +13577,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>2.9969194904656238</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.592118408837389</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8441804561120145</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5998415811224072</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598617998762335</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.5170120538037322</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2851471260987561</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.3329487730123768</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7292608406466472</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9061874785840249</v>
+        <v>1.8314350284434751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1835024907366121</v>
+        <v>2.0970271445688256</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9939091355001093</v>
+        <v>2.0555764283506281</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1453125471605743</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>2.2125808370973026</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.2704052933910721</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0872432728523616</v>
+        <v>2.2410401455888516</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.3587347095212454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0035658772972477E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1347425811255609</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94089780470544571</v>
+        <v>0.87695329370604636</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.51527323650893264</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>7.2433048150969054E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2747259190865119E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>9.931120660754014E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,15 +13813,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.36375807514271147</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13829,39 +13829,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.94089780470544571</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6807180333418054E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1675048002194387E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,11 +13914,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13926,43 +13926,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.3657778879423679</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8916880764999678E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8920733747547448</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7233821947013457</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0669063554263483</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9727462613284112</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2262512118842388</v>
+        <v>1.189092084251383</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27060330655533704</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260736E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-5</v>
+        <v>8.3227804699643408E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,65 +14251,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>2.6466893227076493</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3683232568249437</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0903071551036558</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7451266722691861</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5998415811224072</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470609684217996</v>
+        <v>1.5340273725497153</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.5335939657004252</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4933851210653668</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.4592211184207329</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3933700419807569</v>
+        <v>1.2851471260987561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>1.319619285282253</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14317,42 +14317,42 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.9435637036542999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>1.9335266578694723</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1618836541946655</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>1.9733533712166029</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0191176914452464</v>
+        <v>2.103247595255465</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.1019517952424369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.1531562183108575</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.4580498551852976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>9.931120660754014E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,43 +14386,43 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34990062466108435</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81316655733123622</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1120477295030498</v>
+        <v>1.1574374327480721</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2773506882394274</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51527323650893264</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14430,11 +14430,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1644130991655637E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34643626204067757</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.84704849722003772</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.94089780470544571</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2134410191304296E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.6957175881016376E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,35 +14608,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.1429199218311172</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,15 +14858,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83144702889762612</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14874,31 +14874,31 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.314994873646524</v>
+        <v>3.3812947711194545</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>2.9150230329531022</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28153677348686579</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,33 +14925,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9969194904656238</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.835553855468679</v>
+        <v>2.6687565698528743</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.8104020643184322</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6527452331044743</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2972735591201952</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6823076420050054</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14967,31 +14967,31 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>1.3918929283716039</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4014301830377334</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.3729372362027481</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7460497808471001</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8314350284434751</v>
+        <v>1.9622518161894376</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14999,34 +14999,34 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.1835024907366121</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0761321926341343</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1873774990656836</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.2568324538392486</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.3385174521928045</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2410401455888516</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
         <v>2.4828786416013107</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81316655733123622</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15076,39 +15076,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392579289531956</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50536413580683781</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3136281628162925E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.1644130991655637E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6278888845775719E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33257881155905045</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0.87245995213663885</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014684691360951</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.3525179084477819</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.94089780470544571</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0035658772972477E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15270,31 +15270,31 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3127379699640236</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48554593440264804</v>
+        <v>0.51527323650893264</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15302,15 +15302,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8213647287805807E-4</v>
+        <v>7.2433048150969054E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17004,9 +17004,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>5.4734531456722069</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>4.4002096795881878</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>3.0289924160749497</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.8660180990640309</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.8484564164745754</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.6448082030332198</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>2.2766956923705175</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.7293209988236717</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>5.5754294187985431</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>4.3184494774856814</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>3.0567847436399971</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.8828050826078944</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.7952336830386377</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.6448082030332198</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>2.2349081734166609</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.7601610239065912</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>5.4224650091090378</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>4.4410897806394418</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.9734077609448555</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.8492311155201673</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.8218450497566061</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.6939579722003311</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>2.2349081734166605</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.7139009862822119</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.81345744255454933</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>6.4498275298333241E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.66072792018851378</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.80579116478646517</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.14016576412393889</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.46529458914438215</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.57922255490742314</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-1.0010548444206468</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.82159201698009487</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>6.5143258051316572E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.67394247859228407</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.82190698808219442</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.14016576412393889</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.47460048092726975</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.58501478045649735</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-1.0110653928648534</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.79718829370345834</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>6.385329254534991E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.66733519939039898</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.79773325313860044</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.14156742176517828</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.46064164325293827</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.59080700600557168</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-1.0210759413090598</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.41076294540081587</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.34230245450067986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.27384196360054391</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>0.20538147270040794</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>1.1893797585793966</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.99114979881616372</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.79291983905293106</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.5946898792896983</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,23 +26485,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>3.5972278660428243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>3.8375177845384654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26509,27 +26509,27 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7234181888604008</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9852804123131267</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598995866800661</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34023419285199669</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968907E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,17 +26552,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>2.0549088388597636</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26574,39 +26574,39 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.8295297158972694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058405280750971</v>
+        <v>1.2930381699567137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1438773024472262</v>
+        <v>1.0349366069760619</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315471534226982</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0928491031716954</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0291315663128529</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26614,46 +26614,46 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4647066853778312</v>
+        <v>1.4089083354586758</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621206005469368</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5543921890801602</v>
+        <v>1.6178367682262893</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>1.5390582291742918</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6596189589780561</v>
+        <v>1.7806328414035395</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.6123094556515791</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.678998593600614</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8818663951245562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.9004987356703438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,27 +26687,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>0.44591232935093544</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4824939084297701</v>
+        <v>1.4970281624339834</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629243733000019</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26715,27 +26715,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.1367029262269213</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58992080522742829</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>8.9561239358659751E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4737239462375422E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,23 +26788,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1141796613947755E-2</v>
+        <v>2.1987468478505665E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44591232935093544</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.1002679562386835</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>1.646934715864425</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26812,31 +26812,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61475957597384634</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5170982527352896E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,15 +26889,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26905,31 +26905,31 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1481847739665871</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.941847677595628E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0601347045843319</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6697678349909229</v>
+        <v>2.831571946202494</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7556434575198092</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.260982268123028E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,37 +27307,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.3818631724380968</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0124422366869013</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>1.7407175937663342</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5383100811093886</v>
+        <v>1.5224512142938278</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>1.4839022214171291</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27345,70 +27345,70 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1376643816156409</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>1.0567247460702947</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1204535538793383</v>
+        <v>1.0982663547926188</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96215095737072553</v>
+        <v>1.0330462910717266</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.3670595730193091</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.3621206005469368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5543921890801602</v>
+        <v>1.6178367682262893</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4787030045007901</v>
+        <v>1.5692358415110428</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6769066564674107</v>
+        <v>1.7633451439141845</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5955145654885416</v>
+        <v>1.6123094556515791</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6460770525496216</v>
+        <v>1.5637731999221405</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.7887046923956176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2198886444645145E-2</v>
+        <v>2.0718960681668799E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.45902739786125707</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4824939084297701</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629243733000019</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1711484694459189</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59613049791403283</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27551,23 +27551,23 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6789140307355788</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.684332420350356</v>
+        <v>1.7348623929608666</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.5483521181399686</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27575,23 +27575,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59613049791403283</v>
+        <v>0.58992080522742829</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2195393457443866E-4</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8326808082655205E-5</v>
+        <v>4.0673347353021849E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3698674225107434E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4534254004213432</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5350071138153862</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.58992080522742829</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.5188379445917527E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551915E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-5</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,27 +27914,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9574402153052928</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27946,23 +27946,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5213747082181044</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35064952528624149</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-4</v>
+        <v>3.8346898601078906E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596323E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,21 +27981,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>1.915254840102304</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0889128583471828</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,39 +28003,39 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6874303204877728</v>
+        <v>1.7407175937663342</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.57002781474051</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4839022214171291</v>
+        <v>1.3840241872832837</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>1.267433453719947</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1495150522574702</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0458306765231782</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0982663547926188</v>
+        <v>1.1315471534226982</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0607064824901749</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.95919058607799879</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28043,46 +28043,46 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.4604179634730046</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7633451439141845</v>
+        <v>1.74605744642483</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6123094556515791</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5637731999221405</v>
+        <v>1.7283809051771026</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8632340545787685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.8073370329414054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3305887978142075E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303520160921642E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,15 +28116,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0930378647808275E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.1326287784809976</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28132,39 +28132,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6169591235363416</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893672755441603</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4586859467861387E-4</v>
+        <v>1.4887619456889457E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28197,7 +28197,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2513212032550058E-5</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,23 +28217,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.42405388183373272</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28241,11 +28241,11 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1252210784872554</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28253,19 +28253,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.4286099478833317E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>1.1326287784809976</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4098226384087029</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.684332420350356</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>1.8731974467768191</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-4.0737013461201634</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>5.318364123564435</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>4.0192757588143566</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.7347444960499789</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.4697482162683544</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.6419817670616745</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.5947281046839081</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>2.3047106628537084</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.816005409516098</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>5.3678013699065259</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>4.0563465206578719</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.7844441927795733</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.4953967857001675</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.6665283872855143</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.5947281046839081</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>2.3047106628537084</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.832292266164482</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>5.2689268772223432</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>4.0563465206578719</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.7347444960499789</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.4953967857001675</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.5928885266139949</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.5947281046839081</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>2.262362844490188</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.832292266164482</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.5043860076642076</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.3245126852817164</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-1.0416499450615135</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.91036983354797452</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.70184820201987819</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.36871602262812542</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.82881178574243564</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.9946976071206044</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
